--- a/ARTGRAU.xlsx
+++ b/ARTGRAU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF9EF0F-7259-4960-8D25-A59159635A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA2BA1-973C-4947-81C8-3F183E5A0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="390" windowWidth="14115" windowHeight="11160" xr2:uid="{E642375D-10CD-420B-9AC6-3F47905AF6F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E642375D-10CD-420B-9AC6-3F47905AF6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,155 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>ENDEREÇO</t>
+  </si>
+  <si>
+    <t>TELEFONE</t>
+  </si>
+  <si>
+    <t>SITUACAO</t>
+  </si>
+  <si>
+    <t>FORMADE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>WARLLY LIMA</t>
+  </si>
+  <si>
+    <t>AVENIDA GUAIBA QD 01 LT 14</t>
+  </si>
+  <si>
+    <t>SEM RESPOSTA</t>
+  </si>
+  <si>
+    <t>63 991188490</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>MAIRA OLIVEIRA DE SOUSA</t>
+  </si>
+  <si>
+    <t>RUA DAS MACAUBAS QD17 LT 26</t>
+  </si>
+  <si>
+    <t>DEVOUVIDO</t>
+  </si>
+  <si>
+    <t>63 992730460</t>
+  </si>
+  <si>
+    <t>KAUANNY CRISTINA</t>
+  </si>
+  <si>
+    <t>RUA 03 DE MAIO N°1154</t>
+  </si>
+  <si>
+    <t>PASSAR SEGUNDA FEIRA</t>
+  </si>
+  <si>
+    <t>63 992635898</t>
+  </si>
+  <si>
+    <t>CLEUANNY BORGES</t>
+  </si>
+  <si>
+    <t>RUA GONCALVES LEDO   N 1185</t>
+  </si>
+  <si>
+    <t>VENDIDO</t>
+  </si>
+  <si>
+    <t>CARTAO - 3X 75</t>
+  </si>
+  <si>
+    <t>63 991309183</t>
+  </si>
+  <si>
+    <t>63 991131899</t>
+  </si>
+  <si>
+    <t>63 992229003</t>
+  </si>
+  <si>
+    <t>YASMIN ARAUJO</t>
+  </si>
+  <si>
+    <t>RUA SAO PAULO N 58</t>
+  </si>
+  <si>
+    <t>63 991354521</t>
+  </si>
+  <si>
+    <t>RUA 0J QD 06 LT 14</t>
+  </si>
+  <si>
+    <t>MARA KAROLYNY</t>
+  </si>
+  <si>
+    <t>PIX - 190</t>
+  </si>
+  <si>
+    <t>63 992684966</t>
+  </si>
+  <si>
+    <t>LEONARDO SILVA</t>
+  </si>
+  <si>
+    <t>RUA DAS SAMANBAIAS</t>
+  </si>
+  <si>
+    <t>63 992993686</t>
+  </si>
+  <si>
+    <t>JORDANA SOARES MENDES</t>
+  </si>
+  <si>
+    <t>SINE</t>
+  </si>
+  <si>
+    <t>63 9231-2982</t>
+  </si>
+  <si>
+    <t>FABRICIO DOS REIS LIMA</t>
+  </si>
+  <si>
+    <t>RUA DAS CEREIJEIRAS N° 183</t>
+  </si>
+  <si>
+    <t>RUA DAS CEREIJEIRAS N° 184</t>
+  </si>
+  <si>
+    <t>63 992912016</t>
+  </si>
+  <si>
+    <t>63 992922056</t>
+  </si>
+  <si>
+    <t>Geycielly Cardoso</t>
+  </si>
+  <si>
+    <t>Rua dos ipes  Quadra 71 lot 2</t>
+  </si>
+  <si>
+    <t>PASSAR NO FINAL DO MÊS</t>
+  </si>
+  <si>
+    <t>63 9117-9374</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,18 +180,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -55,8 +261,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,12 +610,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE24A97-91CD-4031-865F-4D8B636F81EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/ARTGRAU.xlsx
+++ b/ARTGRAU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA2BA1-973C-4947-81C8-3F183E5A0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE25AD-E244-4827-A9C2-BFFD42AC4714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E642375D-10CD-420B-9AC6-3F47905AF6F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t>NOME</t>
   </si>
@@ -166,6 +166,129 @@
   </si>
   <si>
     <t>63 9117-9374</t>
+  </si>
+  <si>
+    <t>VITORIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>RUA DOS ABACATEIROS N°277</t>
+  </si>
+  <si>
+    <t>63 992159917</t>
+  </si>
+  <si>
+    <t>JOAO HENRIQUE</t>
+  </si>
+  <si>
+    <t>RUA C N°450 MORADA DO SOL 3</t>
+  </si>
+  <si>
+    <t>63 992398488</t>
+  </si>
+  <si>
+    <t>KARINY GUIMARAES</t>
+  </si>
+  <si>
+    <t>RUA SANTA TEREZINHA N°240</t>
+  </si>
+  <si>
+    <t>63 974007032</t>
+  </si>
+  <si>
+    <t>KAMILLA EVA</t>
+  </si>
+  <si>
+    <t>RUA PORTO ALEGRE N°54</t>
+  </si>
+  <si>
+    <t>63 992057366</t>
+  </si>
+  <si>
+    <t>RUA SEMPRE VIVA N° 25</t>
+  </si>
+  <si>
+    <t>63 992652615</t>
+  </si>
+  <si>
+    <t>SEM NOME</t>
+  </si>
+  <si>
+    <t>PAULO HENRIQUE MOURA</t>
+  </si>
+  <si>
+    <t>RUA 06 BAIRRO SENADOR</t>
+  </si>
+  <si>
+    <t>63 992310277</t>
+  </si>
+  <si>
+    <t>RAFAELA PEREIRA SILVA</t>
+  </si>
+  <si>
+    <t>RUA NOSSA SENHORA DE APARECIDA</t>
+  </si>
+  <si>
+    <t>63 992280810</t>
+  </si>
+  <si>
+    <t>MARIANY</t>
+  </si>
+  <si>
+    <t>RUA DAS GOIABEIRAS</t>
+  </si>
+  <si>
+    <t>63 992880350</t>
+  </si>
+  <si>
+    <t>CARLOS GUSTAVO</t>
+  </si>
+  <si>
+    <t>RUA JB 1 QD 01 LT 32</t>
+  </si>
+  <si>
+    <t>ARIELEN KETHELEM</t>
+  </si>
+  <si>
+    <t>RUA DAS JABOTICABEIRAS</t>
+  </si>
+  <si>
+    <t>63 992432211</t>
+  </si>
+  <si>
+    <t>HEVILYM GOMES</t>
+  </si>
+  <si>
+    <t>RUA DAS SEREJEIRAS</t>
+  </si>
+  <si>
+    <t>63 991344854</t>
+  </si>
+  <si>
+    <t>ALLANA VICTORIA</t>
+  </si>
+  <si>
+    <t>RUA DAS MAMGABEIRAS QD K9 LT 34</t>
+  </si>
+  <si>
+    <t>63 992203994</t>
+  </si>
+  <si>
+    <t>RUA DOS COQUEIROS QD- G15 LT 08</t>
+  </si>
+  <si>
+    <t>63 992481491</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>VINICIOS P. COUTINHO</t>
+  </si>
+  <si>
+    <t>RUA DOS BABAÇUS</t>
+  </si>
+  <si>
+    <t>63 992315907</t>
   </si>
 </sst>
 </file>
@@ -225,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -248,20 +371,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,25 +389,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE24A97-91CD-4031-865F-4D8B636F81EC}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +744,10 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -665,22 +770,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -701,22 +806,22 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -735,94 +840,294 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ARTGRAU.xlsx
+++ b/ARTGRAU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\CORRIDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE25AD-E244-4827-A9C2-BFFD42AC4714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D3E7D-CFA2-48EB-9875-E172E6C6F3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E642375D-10CD-420B-9AC6-3F47905AF6F3}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{E642375D-10CD-420B-9AC6-3F47905AF6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>NOME</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>RUA DAS CEREIJEIRAS N° 183</t>
-  </si>
-  <si>
-    <t>RUA DAS CEREIJEIRAS N° 184</t>
   </si>
   <si>
     <t>63 992912016</t>
@@ -316,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -395,10 +398,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE24A97-91CD-4031-865F-4D8B636F81EC}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +750,10 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -858,20 +864,20 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -901,7 +907,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -910,149 +916,149 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1061,71 +1067,71 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2"/>
     </row>
